--- a/AzentioAutomationFramework_ULSMainRepository/TestData/ulsTestData.xlsx
+++ b/AzentioAutomationFramework_ULSMainRepository/TestData/ulsTestData.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="504">
   <si>
     <t>UserName</t>
   </si>
@@ -1546,12 +1546,25 @@
   </si>
   <si>
     <t>DS01_AT_NewApp_M_CR_07</t>
+  </si>
+  <si>
+    <t>3892</t>
+  </si>
+  <si>
+    <t>3894</t>
+  </si>
+  <si>
+    <t>3897</t>
+  </si>
+  <si>
+    <t>3898</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -2110,10 +2123,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="19.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="15.140625" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2167,14 +2180,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="34.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2278,18 +2291,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="23.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="30.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="26.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="24.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="29.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="25.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="36.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="15.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="22.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="17.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="3" width="19.140625" collapsed="true"/>
+    <col min="12" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2482,13 +2495,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="27.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2603,31 +2616,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="25" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="18" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -3024,14 +3037,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3146,21 +3159,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="28.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="29" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="28.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="21.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="30.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="27.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="25.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="28.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="31.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="33.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="29.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="24.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="20.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="3" width="26.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="3" width="15.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="3" width="28.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="3" width="22.85546875" collapsed="true"/>
+    <col min="15" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -3379,14 +3392,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3490,40 +3503,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="44.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="31.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="28" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="29.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="34.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="22.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="27" style="3" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="28.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="30.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="15.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="22.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="18.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="19.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="28" max="29" width="20.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="16" style="3" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="19.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="22.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="19.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="19" style="3" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="20" style="3" customWidth="1" collapsed="1"/>
-    <col min="36" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="36.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="39.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="24.859375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="27.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="21.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="15.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="15.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="26.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="44.85546875" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="3" width="31.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="3" width="28.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="3" width="29.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="3" width="17.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="3" width="34.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="3" width="22.140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="3" width="27.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="3" width="20.140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="3" width="28.42578125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="3" width="30.5703125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="3" width="15.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="3" width="22.7109375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="3" width="18.7109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="3" width="19.85546875" collapsed="true"/>
+    <col min="28" max="29" customWidth="true" style="3" width="20.42578125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="3" width="16.0" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="3" width="19.42578125" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="3" width="22.140625" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="3" width="19.140625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="3" width="19.0" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="3" width="20.0" collapsed="true"/>
+    <col min="36" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -3917,7 +3930,7 @@
         <v>324</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>342</v>
+        <v>503</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>142</v>
@@ -4152,14 +4165,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="27.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4285,31 +4298,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="25" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="32.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -4742,21 +4755,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="30.5703125" customWidth="1"/>
-    <col min="10" max="10" width="32.7109375" customWidth="1"/>
-    <col min="11" max="11" width="26.140625" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="38" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1">
@@ -4974,14 +4987,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="42.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="28.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5096,17 +5109,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="27.140625" customWidth="1"/>
-    <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -5327,14 +5340,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="27.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5469,33 +5482,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" customWidth="1"/>
-    <col min="16" max="16" width="16" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" customWidth="1"/>
-    <col min="21" max="21" width="19.7109375" customWidth="1"/>
-    <col min="22" max="22" width="17.42578125" customWidth="1"/>
-    <col min="23" max="23" width="25.140625" customWidth="1"/>
-    <col min="24" max="24" width="16" customWidth="1"/>
-    <col min="25" max="25" width="18.7109375" customWidth="1"/>
-    <col min="26" max="26" width="24.140625" customWidth="1"/>
-    <col min="27" max="27" width="20.7109375" customWidth="1"/>
-    <col min="28" max="28" width="19.5703125" customWidth="1"/>
-    <col min="29" max="29" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="20.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -5932,14 +5945,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="29.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6077,13 +6090,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="30.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6209,33 +6222,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="39.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="35.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="32.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="33.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="29.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="30.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="34" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="27.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="36.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="28.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="39.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="26.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="21.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="23.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="32.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="33.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="31.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="30.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="29.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="34.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="38.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="39.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="35.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="3" width="32.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="3" width="33.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="3" width="29.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="3" width="30.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="3" width="34.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="3" width="29.5703125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="3" width="27.7109375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="3" width="20.7109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="3" width="36.28515625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="3" width="28.5703125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="3" width="39.5703125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="3" width="26.7109375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="3" width="21.28515625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="3" width="23.140625" collapsed="true"/>
+    <col min="27" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -6632,22 +6645,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="21.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -6934,14 +6947,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="27.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7067,33 +7080,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="39.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="35.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="32.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="33.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="29.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="30.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="34" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="27.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="36.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="28.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="39.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="26.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="21.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="23.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="32.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="33.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="31.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="30.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="29.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="34.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="38.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="39.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="35.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="3" width="32.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="3" width="33.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="3" width="29.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="3" width="30.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="3" width="34.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="3" width="29.5703125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="3" width="27.7109375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="3" width="20.7109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="3" width="36.28515625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="3" width="28.5703125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="3" width="39.5703125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="3" width="26.7109375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="3" width="21.28515625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="3" width="23.140625" collapsed="true"/>
+    <col min="27" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -7490,34 +7503,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="26" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="3" collapsed="1"/>
-    <col min="13" max="13" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="14.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="19.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="30.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="21.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="41.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="24.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="26.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="26.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="22.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="17.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="16.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="20.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="30" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="17.7109375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="3" width="26.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="21.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="20.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="32.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="23.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="25.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="27.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="26.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="3" width="18.7109375" collapsed="true"/>
+    <col min="12" max="12" style="3" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="3" width="29.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="3" width="19.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="3" width="20.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="3" width="30.7109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="3" width="21.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="3" width="41.5703125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="3" width="24.42578125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="3" width="29.5703125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="3" width="24.140625" collapsed="true"/>
+    <col min="23" max="24" customWidth="true" style="3" width="26.85546875" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="3" width="26.42578125" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="3" width="22.5703125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="3" width="17.85546875" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="3" width="16.140625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="3" width="20.42578125" collapsed="true"/>
+    <col min="30" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -7919,14 +7932,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="29.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -8087,14 +8100,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="42.140625" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="39.28515625" customWidth="1"/>
-    <col min="8" max="8" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="42.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -8498,14 +8511,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="2" width="47.42578125" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" customWidth="1"/>
-    <col min="5" max="5" width="43" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="47.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="31.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="30.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -9006,14 +9019,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="28.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -9057,13 +9070,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="27.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -9178,13 +9191,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="34" width="33.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="26.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="30.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="22.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="38" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="24.5703125" collapsed="true"/>
+    <col min="3" max="34" customWidth="true" style="3" width="33.85546875" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="3" width="26.28515625" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="3" width="30.42578125" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="3" width="22.7109375" collapsed="true"/>
+    <col min="38" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
@@ -9449,7 +9462,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
@@ -9457,15 +9470,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="37" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="27.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -9536,38 +9549,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="32.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="43.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="32.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="30.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="32.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="21.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="39.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="40.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="24" style="3" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="31.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="31.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="15.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="16.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="19.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="24" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="31.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="26.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="17.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="32" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="20.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="35.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="30.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="25.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="24.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="30.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="40.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="27.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="32.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="43.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="3" width="32.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="3" width="30.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="3" width="32.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="3" width="21.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="3" width="39.7109375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="3" width="40.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="3" width="24.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="3" width="31.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="3" width="31.28515625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="3" width="15.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="3" width="16.7109375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="3" width="19.42578125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="3" width="20.7109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="3" width="24.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="3" width="31.42578125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="3" width="26.7109375" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="3" width="26.42578125" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="3" width="17.5703125" collapsed="true"/>
+    <col min="32" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -9869,14 +9882,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="30.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -9958,35 +9971,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="31.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="25" style="3" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="15" width="9.140625" style="3" collapsed="1"/>
-    <col min="16" max="16" width="17.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="26.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20" style="3" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="13.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="22.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="21.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="43.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.140625" style="3" collapsed="1"/>
-    <col min="25" max="25" width="18.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="20" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="23.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="27" style="3" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="23.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="30" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="24.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="37.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="26.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="18.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="21.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="19.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="21.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="30.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="31.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="29.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="3" width="28.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="3" width="25.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="3" width="21.140625" collapsed="true"/>
+    <col min="14" max="15" style="3" width="9.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="3" width="17.42578125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="3" width="26.85546875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="3" width="16.5703125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="3" width="20.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="3" width="13.5703125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="3" width="22.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="3" width="21.28515625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="3" width="43.28515625" collapsed="true"/>
+    <col min="24" max="24" style="3" width="9.140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="3" width="20.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="3" width="23.42578125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="3" width="27.0" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="3" width="23.85546875" collapsed="true"/>
+    <col min="30" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">

--- a/AzentioAutomationFramework_ULSMainRepository/TestData/ulsTestData.xlsx
+++ b/AzentioAutomationFramework_ULSMainRepository/TestData/ulsTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="28" activeTab="31"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="33" activeTab="34"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -37,16 +37,21 @@
     <sheet name="M_NewApp_CD_ExeTrack" sheetId="32" r:id="rId28"/>
     <sheet name="M_NewApp_CustRef_TestData" sheetId="33" r:id="rId29"/>
     <sheet name="M_NewApp_CustRef_ExeTrack" sheetId="34" r:id="rId30"/>
-    <sheet name="Ijarah_ExecutionTracker" sheetId="26" r:id="rId31"/>
-    <sheet name="Murabaha_ExecutionTracker" sheetId="27" r:id="rId32"/>
-    <sheet name="Tawruqq_ExecutionTracker" sheetId="28" r:id="rId33"/>
+    <sheet name="TW_NewApp_AppDetails_TestData" sheetId="35" r:id="rId31"/>
+    <sheet name="TW_NewApp_CustDetails_TestData" sheetId="36" r:id="rId32"/>
+    <sheet name="TW_NewApp_AddDetails_TestData" sheetId="37" r:id="rId33"/>
+    <sheet name="TW_ContDetails_TestData" sheetId="38" r:id="rId34"/>
+    <sheet name="TW_IdentDetails_TestData" sheetId="39" r:id="rId35"/>
+    <sheet name="Ijarah_ExecutionTracker" sheetId="26" r:id="rId36"/>
+    <sheet name="Murabaha_ExecutionTracker" sheetId="27" r:id="rId37"/>
+    <sheet name="Tawruqq_ExecutionTracker" sheetId="28" r:id="rId38"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="565">
   <si>
     <t>UserName</t>
   </si>
@@ -1074,9 +1079,6 @@
     <t>DS01_AT_MAppDetails_NewApp_06</t>
   </si>
   <si>
-    <t>3607</t>
-  </si>
-  <si>
     <t>339710864973</t>
   </si>
   <si>
@@ -1548,16 +1550,202 @@
     <t>DS01_AT_NewApp_M_CR_07</t>
   </si>
   <si>
-    <t>3892</t>
-  </si>
-  <si>
-    <t>3894</t>
-  </si>
-  <si>
-    <t>3897</t>
-  </si>
-  <si>
-    <t>3898</t>
+    <t>3906</t>
+  </si>
+  <si>
+    <t>3828</t>
+  </si>
+  <si>
+    <t>Prabanjan</t>
+  </si>
+  <si>
+    <t>9394759784</t>
+  </si>
+  <si>
+    <t>Tawarooq Retail Loan</t>
+  </si>
+  <si>
+    <t>Tawarooq Retail Loan-Tawaroow Retail Sub product</t>
+  </si>
+  <si>
+    <t>9979443053</t>
+  </si>
+  <si>
+    <t>3859</t>
+  </si>
+  <si>
+    <t>9005595285</t>
+  </si>
+  <si>
+    <t>AT_TW_NewApp_CD_01</t>
+  </si>
+  <si>
+    <t>AT_TW_NewApp_CD_02</t>
+  </si>
+  <si>
+    <t>AT_TW_NewApp_CD_03</t>
+  </si>
+  <si>
+    <t>AT_TW_NewApp_CD_04</t>
+  </si>
+  <si>
+    <t>AT_TW_NewApp_CD_05</t>
+  </si>
+  <si>
+    <t>AT_TW_NewApp_CD_06</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_NewApp_CD_01</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_NewApp_CD_02</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_NewApp_CD_03</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_NewApp_CD_04</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_NewApp_CD_05</t>
+  </si>
+  <si>
+    <t>AT_TW_NEWAPP_IDA_01</t>
+  </si>
+  <si>
+    <t>AT_TW_NEWAPP_IDA_02</t>
+  </si>
+  <si>
+    <t>AT_TW_NEWAPP_IDA_03</t>
+  </si>
+  <si>
+    <t>AT_TW_NEWAPP_IDA_04</t>
+  </si>
+  <si>
+    <t>AT_TW_NEWAPP_IDA_05</t>
+  </si>
+  <si>
+    <t>AT_TW_NEWAPP_IDA_06</t>
+  </si>
+  <si>
+    <t>AT_TW_NEWAPP_IDA_07</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_NEWAPP_IDA_01</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_NEWAPP_IDA_02</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_NEWAPP_IDA_03</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_NEWAPP_IDA_04</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_NEWAPP_IDA_05</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_NEWAPP_IDA_06</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_NEWAPP_IDA_07</t>
+  </si>
+  <si>
+    <t>AT_TW_NewApp_CD_07</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_NewApp_CD_06</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_NewApp_CD_07</t>
+  </si>
+  <si>
+    <t>AT_TW_NewApp_CustDetails_01</t>
+  </si>
+  <si>
+    <t>AT_TW_NewApp_CustDetails_02</t>
+  </si>
+  <si>
+    <t>AT_TW_NewApp_CustDetails_03</t>
+  </si>
+  <si>
+    <t>AT_TW_NewApp_CustDetails_04</t>
+  </si>
+  <si>
+    <t>AT_TW_NewApp_CustDetails_05</t>
+  </si>
+  <si>
+    <t>AT_TW_NewApp_CustDetails_06</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_NewApp_CustDetails_01</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_NewApp_CustDetails_02</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_NewApp_CustDetails_03</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_NewApp_CustDetails_04</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_NewApp_CustDetails_05</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_NewApp_CustDetails_06</t>
+  </si>
+  <si>
+    <t>AT_TW_NewApp_AddDetails_01</t>
+  </si>
+  <si>
+    <t>AT_TW_NewApp_AddDetails_02</t>
+  </si>
+  <si>
+    <t>AT_TW_NewApp_AddDetails_03</t>
+  </si>
+  <si>
+    <t>AT_TW_NewApp_AddDetails_04</t>
+  </si>
+  <si>
+    <t>AT_TW_NewApp_AddDetails_05</t>
+  </si>
+  <si>
+    <t>AT_TW_NewApp_AddDetails_06</t>
+  </si>
+  <si>
+    <t>AT_TW_NewApp_AddDetails_07</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_NewApp_AddDetails_01</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_NewApp_AddDetails_02</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_NewApp_AddDetails_03</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_NewApp_AddDetails_04</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_NewApp_AddDetails_05</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_NewApp_AddDetails_06</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_NewApp_AddDetails_07</t>
+  </si>
+  <si>
+    <t>3934</t>
+  </si>
+  <si>
+    <t>3936</t>
+  </si>
+  <si>
+    <t>3938</t>
   </si>
 </sst>
 </file>
@@ -3505,7 +3693,7 @@
   <cols>
     <col min="1" max="1" customWidth="true" style="3" width="36.5703125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="3" width="39.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="24.859375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="24.85546875" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="3" width="27.28515625" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="3" width="21.85546875" collapsed="true"/>
     <col min="6" max="6" customWidth="true" style="3" width="15.0" collapsed="true"/>
@@ -3930,7 +4118,7 @@
         <v>324</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>142</v>
@@ -4293,7 +4481,7 @@
   <dimension ref="A1:AE7"/>
   <sheetViews>
     <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+      <selection sqref="A1:AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4774,62 +4962,62 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1">
       <c r="A1" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C1" s="31" t="s">
         <v>388</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="E1" s="31" t="s">
         <v>390</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>391</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>392</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>393</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="I1" s="31" t="s">
         <v>394</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>395</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>396</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="L1" s="31" t="s">
         <v>397</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="M1" s="31" t="s">
         <v>398</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="N1" s="31" t="s">
         <v>399</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="O1" s="31" t="s">
         <v>400</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>401</v>
       </c>
       <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="C2" s="28" t="s">
         <v>403</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>404</v>
       </c>
       <c r="D2" s="26">
         <v>2022</v>
@@ -4838,10 +5026,10 @@
         <v>186</v>
       </c>
       <c r="F2" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="G2" s="32" t="s">
         <v>405</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>406</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="32"/>
@@ -4856,34 +5044,34 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>408</v>
-      </c>
       <c r="C3" s="28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
       <c r="F3" s="28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G3" s="32"/>
       <c r="H3" s="32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I3" s="32" t="s">
         <v>186</v>
       </c>
       <c r="J3" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K3" s="32" t="s">
         <v>410</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="L3" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="M3" s="32">
         <v>1234</v>
@@ -4895,30 +5083,30 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>414</v>
-      </c>
       <c r="C4" s="28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
       <c r="F4" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="G4" s="32" t="s">
         <v>405</v>
       </c>
-      <c r="G4" s="32" t="s">
-        <v>406</v>
-      </c>
       <c r="H4" s="32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
       <c r="L4" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M4" s="32">
         <v>1234</v>
@@ -4930,30 +5118,30 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>416</v>
-      </c>
       <c r="C5" s="28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
       <c r="F5" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="G5" s="32" t="s">
         <v>405</v>
       </c>
-      <c r="G5" s="32" t="s">
-        <v>406</v>
-      </c>
       <c r="H5" s="32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
       <c r="L5" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M5" s="32">
         <v>1234</v>
@@ -4962,7 +5150,7 @@
         <v>186</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P5" s="32"/>
       <c r="Q5" s="32"/>
@@ -5103,8 +5291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5159,10 +5347,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>345</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>346</v>
       </c>
       <c r="C2" s="27">
         <v>3419</v>
@@ -5171,7 +5359,7 @@
         <v>136</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>241</v>
@@ -5186,10 +5374,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="22" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C3" s="27">
         <v>3419</v>
@@ -5208,22 +5396,22 @@
         <v>136</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C4" s="27">
         <v>3419</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
@@ -5234,10 +5422,10 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C5" s="27">
         <v>3419</v>
@@ -5256,15 +5444,15 @@
         <v>136</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C6" s="27">
         <v>3419</v>
@@ -5280,10 +5468,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>355</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>356</v>
       </c>
       <c r="C7" s="27">
         <v>3419</v>
@@ -5298,15 +5486,15 @@
         <v>136</v>
       </c>
       <c r="K7" s="26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>357</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>358</v>
       </c>
       <c r="C8" s="27">
         <v>3419</v>
@@ -5378,41 +5566,41 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>346</v>
-      </c>
       <c r="C2" s="24" t="s">
         <v>128</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="22" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>128</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>128</v>
@@ -5420,10 +5608,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>128</v>
@@ -5431,10 +5619,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>128</v>
@@ -5442,10 +5630,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>355</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>356</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>128</v>
@@ -5453,10 +5641,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>357</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>358</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>128</v>
@@ -5476,8 +5664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection sqref="A1:AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5602,10 +5790,10 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>359</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>360</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>309</v>
@@ -5683,10 +5871,10 @@
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>362</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>309</v>
@@ -5724,10 +5912,10 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>363</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>364</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>309</v>
@@ -5767,10 +5955,10 @@
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>365</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>366</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>309</v>
@@ -5808,10 +5996,10 @@
     </row>
     <row r="6" spans="1:29">
       <c r="A6" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>367</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>368</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>309</v>
@@ -5845,10 +6033,10 @@
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>369</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>370</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>309</v>
@@ -5886,10 +6074,10 @@
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>371</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>372</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>309</v>
@@ -5983,44 +6171,44 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>360</v>
-      </c>
       <c r="C2" s="24" t="s">
         <v>128</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>362</v>
-      </c>
       <c r="C3" s="24" t="s">
         <v>128</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>363</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>364</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>128</v>
@@ -6028,10 +6216,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>365</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>366</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>128</v>
@@ -6039,10 +6227,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>367</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>368</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>128</v>
@@ -6050,10 +6238,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>369</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>370</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>128</v>
@@ -6061,10 +6249,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>371</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>372</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>128</v>
@@ -6127,10 +6315,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>373</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>374</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>128</v>
@@ -6138,10 +6326,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>375</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>376</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>128</v>
@@ -6149,10 +6337,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>377</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>378</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>128</v>
@@ -6160,10 +6348,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>379</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>380</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>128</v>
@@ -6171,10 +6359,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>381</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>382</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>128</v>
@@ -6182,10 +6370,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>383</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>384</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>128</v>
@@ -6193,10 +6381,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>385</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>386</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>128</v>
@@ -6262,10 +6450,10 @@
         <v>43</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>422</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>423</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>194</v>
@@ -6277,52 +6465,52 @@
         <v>196</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>434</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>435</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>54</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="W1" s="5" t="s">
         <v>223</v>
       </c>
       <c r="X1" s="19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Y1" s="5" t="s">
         <v>235</v>
@@ -6333,64 +6521,64 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>458</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>459</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>309</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>204</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="K2" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
@@ -6401,10 +6589,10 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>460</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>461</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>309</v>
@@ -6430,7 +6618,7 @@
         <v>51</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>186</v>
@@ -6441,10 +6629,10 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>309</v>
@@ -6452,7 +6640,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -6477,10 +6665,10 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>309</v>
@@ -6506,23 +6694,23 @@
         <v>51</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="W5" s="6" t="s">
         <v>186</v>
       </c>
       <c r="X5" s="33" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>309</v>
@@ -6553,10 +6741,10 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>309</v>
@@ -6583,18 +6771,18 @@
       <c r="W7" s="6"/>
       <c r="X7" s="33"/>
       <c r="Y7" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="Z7" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>309</v>
@@ -6639,8 +6827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection sqref="A1:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6715,10 +6903,10 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>472</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>473</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>309</v>
@@ -6761,10 +6949,10 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>474</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>475</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>309</v>
@@ -6793,10 +6981,10 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>476</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>477</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>309</v>
@@ -6819,10 +7007,10 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>478</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>479</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>309</v>
@@ -6851,10 +7039,10 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>480</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>481</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>309</v>
@@ -6875,10 +7063,10 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>482</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>483</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>309</v>
@@ -6903,10 +7091,10 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>484</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>485</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>309</v>
@@ -6985,10 +7173,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>472</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>473</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>128</v>
@@ -6996,10 +7184,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>474</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>475</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>128</v>
@@ -7007,10 +7195,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>476</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>477</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>128</v>
@@ -7018,10 +7206,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>478</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>479</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>128</v>
@@ -7029,10 +7217,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>480</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>481</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>128</v>
@@ -7040,10 +7228,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>482</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>483</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>128</v>
@@ -7051,10 +7239,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>484</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>485</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>128</v>
@@ -7120,10 +7308,10 @@
         <v>43</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>422</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>423</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>194</v>
@@ -7135,52 +7323,52 @@
         <v>196</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>434</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>435</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>54</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="W1" s="5" t="s">
         <v>223</v>
       </c>
       <c r="X1" s="19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Y1" s="5" t="s">
         <v>235</v>
@@ -7191,64 +7379,64 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>486</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>487</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>309</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>204</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="K2" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
@@ -7259,10 +7447,10 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>488</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>489</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>309</v>
@@ -7288,7 +7476,7 @@
         <v>51</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>186</v>
@@ -7299,10 +7487,10 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>490</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>491</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>309</v>
@@ -7310,7 +7498,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -7335,10 +7523,10 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>492</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>493</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>309</v>
@@ -7364,23 +7552,23 @@
         <v>51</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="W5" s="6" t="s">
         <v>186</v>
       </c>
       <c r="X5" s="33" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>494</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>495</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>309</v>
@@ -7411,10 +7599,10 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>496</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>497</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>309</v>
@@ -7441,18 +7629,18 @@
       <c r="W7" s="6"/>
       <c r="X7" s="33"/>
       <c r="Y7" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="Z7" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>498</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>499</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>309</v>
@@ -7970,10 +8158,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>486</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>487</v>
       </c>
       <c r="C2" s="38" t="s">
         <v>128</v>
@@ -7986,10 +8174,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>488</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>489</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>128</v>
@@ -8002,10 +8190,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>490</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>491</v>
       </c>
       <c r="C4" s="38" t="s">
         <v>128</v>
@@ -8018,10 +8206,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>492</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>493</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>128</v>
@@ -8034,10 +8222,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>494</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>495</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>128</v>
@@ -8050,10 +8238,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>496</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>497</v>
       </c>
       <c r="C7" s="38" t="s">
         <v>128</v>
@@ -8066,10 +8254,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>498</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>499</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>128</v>
@@ -8092,10 +8280,2207 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AJ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.859375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="62.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="18.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
+      <c r="A2" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+    </row>
+    <row r="3" spans="1:36">
+      <c r="A3" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+    </row>
+    <row r="4" spans="1:36">
+      <c r="A4" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH4" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+    </row>
+    <row r="5" spans="1:36">
+      <c r="A5" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH5" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+    </row>
+    <row r="6" spans="1:36">
+      <c r="A6" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE6" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+    </row>
+    <row r="7" spans="1:36">
+      <c r="A7" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA7" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI7" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="AJ7" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
+      <c r="A8" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA8" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI8" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="AJ8" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AG3" r:id="rId1"/>
+    <hyperlink ref="AG4" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AE7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="39.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="23.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE1" s="19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" s="26" t="s">
+        <v>536</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2971</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P2" s="7">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="W2" s="7">
+        <v>2</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" s="26" t="s">
+        <v>537</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2971</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="26" t="s">
+        <v>538</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2971</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="26" t="s">
+        <v>539</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2971</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" s="26" t="s">
+        <v>540</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2971</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE6" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2971</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD7" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE7" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AC3" r:id="rId1"/>
+    <hyperlink ref="AC5" r:id="rId2"/>
+    <hyperlink ref="AC6" r:id="rId3"/>
+    <hyperlink ref="AC7" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AC8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="41.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="18.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="7">
+        <v>987456</v>
+      </c>
+      <c r="O2" s="7">
+        <v>974121</v>
+      </c>
+      <c r="P2" s="7">
+        <v>9874563210</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>20</v>
+      </c>
+      <c r="R2" s="7">
+        <v>101010</v>
+      </c>
+      <c r="S2" s="7">
+        <v>101010</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC7" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC8" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Z3" r:id="rId1"/>
+    <hyperlink ref="Z4" r:id="rId2"/>
+    <hyperlink ref="Z5" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="20.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="N3" r:id="rId2"/>
+    <hyperlink ref="N2" r:id="rId3"/>
+    <hyperlink ref="N5" r:id="rId4"/>
+    <hyperlink ref="P7" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="C2" s="27">
+        <v>3419</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="C3" s="27">
+        <v>3419</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="22" t="s">
+        <v>521</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="C4" s="27">
+        <v>3419</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="C5" s="27">
+        <v>3419</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="22" t="s">
+        <v>523</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>530</v>
+      </c>
+      <c r="C6" s="27">
+        <v>3419</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="22" t="s">
+        <v>524</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="C7" s="27">
+        <v>3419</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="22" t="s">
+        <v>525</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>532</v>
+      </c>
+      <c r="C8" s="27">
+        <v>3419</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I3" r:id="rId1"/>
+    <hyperlink ref="I5" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A2:A33"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8138,7 +10523,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>133</v>
@@ -8149,7 +10534,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>183</v>
@@ -8160,7 +10545,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>188</v>
@@ -8268,7 +10653,7 @@
         <v>128</v>
       </c>
       <c r="E13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -8416,10 +10801,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>458</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>459</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>128</v>
@@ -8427,10 +10812,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>460</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>461</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>128</v>
@@ -8438,10 +10823,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>128</v>
@@ -8449,10 +10834,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>128</v>
@@ -8460,10 +10845,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>128</v>
@@ -8471,10 +10856,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>128</v>
@@ -8482,10 +10867,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>128</v>
@@ -8501,12 +10886,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8692,10 +11077,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="B15" s="26" t="s">
         <v>345</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>346</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>128</v>
@@ -8703,10 +11088,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="22" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>128</v>
@@ -8714,10 +11099,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>128</v>
@@ -8725,10 +11110,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>128</v>
@@ -8736,10 +11121,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>128</v>
@@ -8747,10 +11132,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="B20" s="26" t="s">
         <v>355</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>356</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>128</v>
@@ -8758,10 +11143,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="B21" s="26" t="s">
         <v>357</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>358</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>128</v>
@@ -8769,10 +11154,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>359</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>360</v>
       </c>
       <c r="C22" s="24" t="s">
         <v>128</v>
@@ -8780,10 +11165,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>362</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>128</v>
@@ -8791,10 +11176,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>363</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>364</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>128</v>
@@ -8802,10 +11187,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>365</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>366</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>128</v>
@@ -8813,10 +11198,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>367</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>368</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>128</v>
@@ -8824,10 +11209,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>369</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>370</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>128</v>
@@ -8835,10 +11220,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>371</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>372</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>128</v>
@@ -8846,10 +11231,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>472</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>473</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>128</v>
@@ -8857,10 +11242,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>474</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>475</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>128</v>
@@ -8868,10 +11253,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>476</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>477</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>128</v>
@@ -8879,10 +11264,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>478</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>479</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>128</v>
@@ -8890,10 +11275,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>480</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>481</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>128</v>
@@ -8901,10 +11286,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>482</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>483</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>128</v>
@@ -8912,10 +11297,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>484</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>485</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>128</v>
@@ -8923,10 +11308,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="B36" s="26" t="s">
         <v>486</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>487</v>
       </c>
       <c r="C36" s="38" t="s">
         <v>128</v>
@@ -8934,10 +11319,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="B37" s="26" t="s">
         <v>488</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>489</v>
       </c>
       <c r="C37" s="38" t="s">
         <v>128</v>
@@ -8945,10 +11330,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="B38" s="26" t="s">
         <v>490</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>491</v>
       </c>
       <c r="C38" s="38" t="s">
         <v>128</v>
@@ -8956,10 +11341,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="B39" s="26" t="s">
         <v>492</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>493</v>
       </c>
       <c r="C39" s="38" t="s">
         <v>128</v>
@@ -8967,10 +11352,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="B40" s="26" t="s">
         <v>494</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>495</v>
       </c>
       <c r="C40" s="38" t="s">
         <v>128</v>
@@ -8978,10 +11363,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="B41" s="26" t="s">
         <v>496</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>497</v>
       </c>
       <c r="C41" s="38" t="s">
         <v>128</v>
@@ -8989,10 +11374,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="B42" s="26" t="s">
         <v>498</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>499</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>128</v>
@@ -9009,18 +11394,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="47.28515625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="19.7109375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="27.7109375" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="28.140625" collapsed="true"/>
@@ -9055,7 +11440,386 @@
         <v>127</v>
       </c>
     </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="26" t="s">
+        <v>536</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="26" t="s">
+        <v>537</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="26" t="s">
+        <v>538</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="26" t="s">
+        <v>539</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="26" t="s">
+        <v>540</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="22" t="s">
+        <v>521</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="22" t="s">
+        <v>523</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>530</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="22" t="s">
+        <v>524</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="22" t="s">
+        <v>525</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>532</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C35">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
